--- a/Payments.xlsx
+++ b/Payments.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michel\git2\Ironhack-DAFT-Project6-Descriptive_predictive_analysis_visualization_in_Tableau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0581CA07-32C6-4767-802D-01AD8F83BB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887A7F34-18A0-4267-B2FB-6A8A9B767990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EC262E73-C69C-4C2A-8A9A-BDDEF9F428A1}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{EC262E73-C69C-4C2A-8A9A-BDDEF9F428A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="112">
   <si>
     <t>Debtor</t>
   </si>
@@ -91,9 +91,6 @@
     <t>0.02</t>
   </si>
   <si>
-    <t>16-mars-21</t>
-  </si>
-  <si>
     <t>NEW</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
     <t>1000000.00</t>
   </si>
   <si>
-    <t>02-nov-21</t>
-  </si>
-  <si>
     <t>EUR</t>
   </si>
   <si>
@@ -181,9 +175,6 @@
     <t>4569.00</t>
   </si>
   <si>
-    <t>21-Feb-2021</t>
-  </si>
-  <si>
     <t>PROCESSING</t>
   </si>
   <si>
@@ -199,9 +190,6 @@
     <t>456.00</t>
   </si>
   <si>
-    <t>26-Feb-2021</t>
-  </si>
-  <si>
     <t>Beta Corp</t>
   </si>
   <si>
@@ -211,33 +199,21 @@
     <t>3326.00</t>
   </si>
   <si>
-    <t>10-janv-22</t>
-  </si>
-  <si>
     <t>REF001DEMO</t>
   </si>
   <si>
     <t>1100.00</t>
   </si>
   <si>
-    <t>07-Feb-2021</t>
-  </si>
-  <si>
     <t>FNROCNBQXXX</t>
   </si>
   <si>
-    <t>08-Feb-2021</t>
-  </si>
-  <si>
     <t xml:space="preserve">CARGO INC </t>
   </si>
   <si>
     <t>REFD543105</t>
   </si>
   <si>
-    <t>02-mars-21</t>
-  </si>
-  <si>
     <t>BETA NV.</t>
   </si>
   <si>
@@ -262,9 +238,6 @@
     <t>238.00</t>
   </si>
   <si>
-    <t>15-janv-21</t>
-  </si>
-  <si>
     <t>CANCELLED</t>
   </si>
   <si>
@@ -277,9 +250,6 @@
     <t>6709.00</t>
   </si>
   <si>
-    <t>13-janv-21</t>
-  </si>
-  <si>
     <t>FINVALTRXXX</t>
   </si>
   <si>
@@ -292,9 +262,6 @@
     <t>5188.00</t>
   </si>
   <si>
-    <t>14-janv-21</t>
-  </si>
-  <si>
     <t>TSIBAU44XXX</t>
   </si>
   <si>
@@ -307,18 +274,12 @@
     <t>120.00</t>
   </si>
   <si>
-    <t>05-janv-21</t>
-  </si>
-  <si>
     <t>CROSSSUPPORT SA</t>
   </si>
   <si>
     <t>6720.00</t>
   </si>
   <si>
-    <t>28-janv-21</t>
-  </si>
-  <si>
     <t xml:space="preserve">DELTA INC </t>
   </si>
   <si>
@@ -337,18 +298,12 @@
     <t>2100.00</t>
   </si>
   <si>
-    <t>22-mars-21</t>
-  </si>
-  <si>
     <t>ICRETA NV.</t>
   </si>
   <si>
     <t>800.00</t>
   </si>
   <si>
-    <t>20-nov-20</t>
-  </si>
-  <si>
     <t>IntellectEU NV.</t>
   </si>
   <si>
@@ -361,9 +316,6 @@
     <t>87600.00</t>
   </si>
   <si>
-    <t>21-nov-20</t>
-  </si>
-  <si>
     <t>ISUPPLIER2 PL.</t>
   </si>
   <si>
@@ -376,9 +328,6 @@
     <t>0.04</t>
   </si>
   <si>
-    <t>27-nov-20</t>
-  </si>
-  <si>
     <t xml:space="preserve">QUATRO INC </t>
   </si>
   <si>
@@ -388,9 +337,6 @@
     <t>3100.00</t>
   </si>
   <si>
-    <t>01-mars-21</t>
-  </si>
-  <si>
     <t xml:space="preserve">SIGMA INC </t>
   </si>
   <si>
@@ -415,9 +361,6 @@
     <t>REFD10192</t>
   </si>
   <si>
-    <t>21-janv-21</t>
-  </si>
-  <si>
     <t>ZERO LTD.</t>
   </si>
   <si>
@@ -425,17 +368,15 @@
   </si>
   <si>
     <t>12100.00</t>
-  </si>
-  <si>
-    <t>23-mars-21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  <numFmts count="2">
+    <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="168" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -468,8 +409,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -786,14 +727,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CF87D3-5296-44C7-898D-811DB0F715A2}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="28.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="35.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.88671875" style="2" customWidth="1"/>
     <col min="12" max="12" width="43.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -822,10 +763,10 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -857,14 +798,14 @@
       <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1">
+        <v>44271</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="K2" t="s">
         <v>19</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.34375</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -887,19 +828,19 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" s="1">
+        <v>44272</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.65625</v>
+      </c>
+      <c r="K3" t="s">
         <v>22</v>
-      </c>
-      <c r="I3" s="2">
-        <v>44272</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.65625</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -907,16 +848,16 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -927,14 +868,14 @@
       <c r="H4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1">
+        <v>44271</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
         <v>19</v>
-      </c>
-      <c r="J4" s="1">
-        <v>41548</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -942,34 +883,34 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="1">
+        <v>44271</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.53125</v>
+      </c>
+      <c r="K5" t="s">
         <v>27</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.53125</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -977,34 +918,34 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>44273</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>0.59375</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1012,7 +953,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -1021,7 +962,7 @@
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -1030,16 +971,16 @@
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="1">
+        <v>26</v>
+      </c>
+      <c r="I7" s="1">
+        <v>44502</v>
+      </c>
+      <c r="J7" s="2">
         <v>0.35694444444444445</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1047,7 +988,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -1056,25 +997,25 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
         <v>31</v>
       </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="2">
+        <v>21</v>
+      </c>
+      <c r="I8" s="1">
         <v>44503</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <v>0.52777777777777779</v>
       </c>
       <c r="K8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1082,7 +1023,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -1091,25 +1032,25 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>33</v>
       </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
       <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="1">
+        <v>44503</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.7319444444444444</v>
+      </c>
+      <c r="K9" t="s">
         <v>22</v>
-      </c>
-      <c r="I9" s="2">
-        <v>44503</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.7319444444444444</v>
-      </c>
-      <c r="K9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1117,7 +1058,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -1126,7 +1067,7 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -1137,14 +1078,14 @@
       <c r="H10" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1">
+        <v>44271</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.38611111111111113</v>
+      </c>
+      <c r="K10" t="s">
         <v>19</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.38611111111111113</v>
-      </c>
-      <c r="K10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1152,7 +1093,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -1161,25 +1102,25 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="1">
+        <v>26</v>
+      </c>
+      <c r="I11" s="1">
+        <v>44271</v>
+      </c>
+      <c r="J11" s="2">
         <v>0.52222222222222225</v>
       </c>
       <c r="K11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1187,16 +1128,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
         <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
@@ -1207,14 +1148,14 @@
       <c r="H12" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="1">
+        <v>44271</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="K12" t="s">
         <v>19</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.42430555555555555</v>
-      </c>
-      <c r="K12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1222,34 +1163,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
         <v>39</v>
       </c>
-      <c r="E13" t="s">
+      <c r="I13" s="1">
+        <v>44271</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.7319444444444444</v>
+      </c>
+      <c r="K13" t="s">
         <v>40</v>
-      </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.7319444444444444</v>
-      </c>
-      <c r="K13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1257,16 +1198,16 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
         <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" t="s">
-        <v>45</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
@@ -1277,14 +1218,14 @@
       <c r="H14" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>44275</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="2">
         <v>0.55138888888888882</v>
       </c>
       <c r="K14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1292,34 +1233,34 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" t="s">
-        <v>45</v>
-      </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="2">
+        <v>26</v>
+      </c>
+      <c r="I15" s="1">
         <v>44276</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="2">
         <v>0.52361111111111114</v>
       </c>
       <c r="K15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1327,16 +1268,16 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
         <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" t="s">
-        <v>48</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -1347,14 +1288,14 @@
       <c r="H16" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="I16" s="1">
+        <v>44248</v>
+      </c>
+      <c r="J16" s="2">
         <v>0.43263888888888885</v>
       </c>
       <c r="K16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1362,34 +1303,34 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
         <v>46</v>
       </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="1">
+        <v>44248</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="K17" t="s">
         <v>47</v>
-      </c>
-      <c r="E17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.48819444444444443</v>
-      </c>
-      <c r="K17" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1397,34 +1338,34 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
         <v>46</v>
       </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="1">
+        <v>44248</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.70972222222222225</v>
+      </c>
+      <c r="K18" t="s">
         <v>47</v>
-      </c>
-      <c r="E18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0.70972222222222225</v>
-      </c>
-      <c r="K18" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1432,16 +1373,16 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
@@ -1450,16 +1391,16 @@
         <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J19" s="1">
+        <v>26</v>
+      </c>
+      <c r="I19" s="1">
+        <v>44253</v>
+      </c>
+      <c r="J19" s="2">
         <v>0.52986111111111112</v>
       </c>
       <c r="K19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1467,16 +1408,16 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
@@ -1487,14 +1428,14 @@
       <c r="H20" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="I20" s="1">
+        <v>44253</v>
+      </c>
+      <c r="J20" s="2">
         <v>0.65347222222222223</v>
       </c>
       <c r="K20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1502,16 +1443,16 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
@@ -1520,16 +1461,16 @@
         <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" s="1">
+        <v>26</v>
+      </c>
+      <c r="I21" s="1">
+        <v>44253</v>
+      </c>
+      <c r="J21" s="2">
         <v>0.75694444444444453</v>
       </c>
       <c r="K21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1537,16 +1478,16 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
@@ -1555,16 +1496,16 @@
         <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J22" s="1">
+        <v>26</v>
+      </c>
+      <c r="I22" s="1">
+        <v>44571</v>
+      </c>
+      <c r="J22" s="2">
         <v>0.52986111111111112</v>
       </c>
       <c r="K22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1572,16 +1513,16 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -1592,14 +1533,14 @@
       <c r="H23" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="1">
         <v>44572</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="2">
         <v>0.60555555555555551</v>
       </c>
       <c r="K23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1607,34 +1548,34 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="1">
+        <v>44572</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.76458333333333339</v>
+      </c>
+      <c r="K24" t="s">
         <v>27</v>
-      </c>
-      <c r="I24" s="2">
-        <v>44572</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0.76458333333333339</v>
-      </c>
-      <c r="K24" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1642,16 +1583,16 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" t="s">
         <v>56</v>
-      </c>
-      <c r="C25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" t="s">
-        <v>61</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
@@ -1662,14 +1603,14 @@
       <c r="H25" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J25" s="1">
+      <c r="I25" s="1">
+        <v>44234</v>
+      </c>
+      <c r="J25" s="2">
         <v>0.65486111111111112</v>
       </c>
       <c r="K25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1677,34 +1618,34 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
         <v>56</v>
       </c>
-      <c r="C26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" t="s">
-        <v>61</v>
-      </c>
       <c r="F26" t="s">
         <v>16</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H26" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J26" s="1">
+        <v>26</v>
+      </c>
+      <c r="I26" s="1">
+        <v>44235</v>
+      </c>
+      <c r="J26" s="2">
         <v>0.72291666666666676</v>
       </c>
       <c r="K26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1712,16 +1653,16 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
@@ -1730,16 +1671,16 @@
         <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J27" s="1">
+        <v>48</v>
+      </c>
+      <c r="I27" s="1">
+        <v>44257</v>
+      </c>
+      <c r="J27" s="2">
         <v>0.5083333333333333</v>
       </c>
       <c r="K27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1747,34 +1688,34 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
       </c>
       <c r="G28" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="1">
+        <v>44257</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="K28" t="s">
         <v>27</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0.57152777777777775</v>
-      </c>
-      <c r="K28" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1782,34 +1723,34 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
       </c>
       <c r="G29" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H29" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="1">
         <v>44258</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="2">
         <v>0.75694444444444453</v>
       </c>
       <c r="K29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -1817,16 +1758,16 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
@@ -1835,16 +1776,16 @@
         <v>17</v>
       </c>
       <c r="H30" t="s">
-        <v>27</v>
-      </c>
-      <c r="I30" s="2">
+        <v>26</v>
+      </c>
+      <c r="I30" s="1">
         <v>44522</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="2">
         <v>0.46666666666666662</v>
       </c>
       <c r="K30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1852,34 +1793,34 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>27</v>
-      </c>
-      <c r="I31" s="2">
+        <v>26</v>
+      </c>
+      <c r="I31" s="1">
         <v>44524</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="2">
         <v>0.61388888888888882</v>
       </c>
       <c r="K31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -1887,16 +1828,16 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
@@ -1907,14 +1848,14 @@
       <c r="H32" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="1">
         <v>44520</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="2">
         <v>0.43263888888888885</v>
       </c>
       <c r="K32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -1922,34 +1863,34 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" s="2">
+        <v>26</v>
+      </c>
+      <c r="I33" s="1">
         <v>44521</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="2">
         <v>0.48055555555555557</v>
       </c>
       <c r="K33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -1957,16 +1898,16 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
@@ -1975,16 +1916,16 @@
         <v>17</v>
       </c>
       <c r="H34" t="s">
-        <v>51</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J34" s="1">
+        <v>48</v>
+      </c>
+      <c r="I34" s="1">
+        <v>44211</v>
+      </c>
+      <c r="J34" s="2">
         <v>0.75694444444444453</v>
       </c>
       <c r="K34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -1992,16 +1933,16 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
@@ -2010,16 +1951,16 @@
         <v>17</v>
       </c>
       <c r="H35" t="s">
-        <v>51</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J35" s="1">
+        <v>48</v>
+      </c>
+      <c r="I35" s="1">
+        <v>44211</v>
+      </c>
+      <c r="J35" s="2">
         <v>0.52986111111111112</v>
       </c>
       <c r="K35" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2027,16 +1968,16 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
@@ -2045,16 +1986,16 @@
         <v>17</v>
       </c>
       <c r="H36" t="s">
-        <v>27</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J36" s="1">
+        <v>26</v>
+      </c>
+      <c r="I36" s="1">
+        <v>44209</v>
+      </c>
+      <c r="J36" s="2">
         <v>0.60555555555555551</v>
       </c>
       <c r="K36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2062,34 +2003,34 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E37" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H37" t="s">
-        <v>41</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J37" s="1">
+        <v>39</v>
+      </c>
+      <c r="I37" s="1">
+        <v>44209</v>
+      </c>
+      <c r="J37" s="2">
         <v>0.60555555555555551</v>
       </c>
       <c r="K37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2097,34 +2038,34 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E38" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
         <v>17</v>
       </c>
       <c r="H38" t="s">
-        <v>27</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J38" s="1">
+        <v>26</v>
+      </c>
+      <c r="I38" s="1">
+        <v>44210</v>
+      </c>
+      <c r="J38" s="2">
         <v>0.65486111111111112</v>
       </c>
       <c r="K38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2132,34 +2073,34 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H39" t="s">
-        <v>27</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J39" s="1">
+        <v>26</v>
+      </c>
+      <c r="I39" s="1">
+        <v>44210</v>
+      </c>
+      <c r="J39" s="2">
         <v>0.65486111111111112</v>
       </c>
       <c r="K39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -2167,16 +2108,16 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E40" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
@@ -2185,16 +2126,16 @@
         <v>17</v>
       </c>
       <c r="H40" t="s">
-        <v>27</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J40" s="1">
+        <v>26</v>
+      </c>
+      <c r="I40" s="1">
+        <v>44201</v>
+      </c>
+      <c r="J40" s="2">
         <v>0.5083333333333333</v>
       </c>
       <c r="K40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -2202,34 +2143,34 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E41" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
       </c>
       <c r="G41" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H41" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="1">
+        <v>44201</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="K41" t="s">
         <v>27</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J41" s="1">
-        <v>0.5131944444444444</v>
-      </c>
-      <c r="K41" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -2237,34 +2178,34 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E42" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
       </c>
       <c r="G42" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H42" t="s">
-        <v>27</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J42" s="1">
+        <v>26</v>
+      </c>
+      <c r="I42" s="1">
+        <v>44201</v>
+      </c>
+      <c r="J42" s="2">
         <v>0.72222222222222221</v>
       </c>
       <c r="K42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -2272,19 +2213,19 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E43" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
         <v>17</v>
@@ -2292,14 +2233,14 @@
       <c r="H43" t="s">
         <v>18</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J43" s="1">
+      <c r="I43" s="1">
+        <v>44224</v>
+      </c>
+      <c r="J43" s="2">
         <v>0.55763888888888891</v>
       </c>
       <c r="K43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -2307,34 +2248,34 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E44" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H44" t="s">
         <v>18</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J44" s="1">
+      <c r="I44" s="1">
+        <v>44224</v>
+      </c>
+      <c r="J44" s="2">
         <v>0.79861111111111116</v>
       </c>
       <c r="K44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -2342,34 +2283,34 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E45" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
         <v>17</v>
       </c>
       <c r="H45" t="s">
-        <v>27</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J45" s="1">
+        <v>26</v>
+      </c>
+      <c r="I45" s="1">
+        <v>44209</v>
+      </c>
+      <c r="J45" s="2">
         <v>0.47430555555555554</v>
       </c>
       <c r="K45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -2377,34 +2318,34 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E46" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" t="s">
         <v>33</v>
       </c>
-      <c r="G46" t="s">
-        <v>35</v>
-      </c>
       <c r="H46" t="s">
-        <v>27</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J46" s="1">
+        <v>26</v>
+      </c>
+      <c r="I46" s="1">
+        <v>44209</v>
+      </c>
+      <c r="J46" s="2">
         <v>0.53125</v>
       </c>
       <c r="K46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -2412,16 +2353,16 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E47" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
@@ -2432,14 +2373,14 @@
       <c r="H47" t="s">
         <v>18</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J47" s="1">
+      <c r="I47" s="1">
+        <v>44277</v>
+      </c>
+      <c r="J47" s="2">
         <v>0.59166666666666667</v>
       </c>
       <c r="K47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -2447,34 +2388,34 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E48" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
       </c>
       <c r="G48" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H48" t="s">
         <v>18</v>
       </c>
-      <c r="I48" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J48" s="1">
+      <c r="I48" s="1">
+        <v>44277</v>
+      </c>
+      <c r="J48" s="2">
         <v>0.71527777777777779</v>
       </c>
       <c r="K48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -2482,16 +2423,16 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E49" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
@@ -2500,16 +2441,16 @@
         <v>17</v>
       </c>
       <c r="H49" t="s">
-        <v>27</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J49" s="1">
+        <v>26</v>
+      </c>
+      <c r="I49" s="1">
+        <v>44155</v>
+      </c>
+      <c r="J49" s="2">
         <v>0.3833333333333333</v>
       </c>
       <c r="K49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -2517,34 +2458,34 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C50" t="s">
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E50" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
       </c>
       <c r="G50" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H50" t="s">
-        <v>27</v>
-      </c>
-      <c r="I50" s="2">
+        <v>26</v>
+      </c>
+      <c r="I50" s="1">
         <v>44157</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J50" s="2">
         <v>0.71527777777777779</v>
       </c>
       <c r="K50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -2552,16 +2493,16 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C51" t="s">
         <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E51" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
@@ -2570,16 +2511,16 @@
         <v>17</v>
       </c>
       <c r="H51" t="s">
-        <v>51</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J51" s="1">
+        <v>48</v>
+      </c>
+      <c r="I51" s="1">
+        <v>44155</v>
+      </c>
+      <c r="J51" s="2">
         <v>0.47152777777777777</v>
       </c>
       <c r="K51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -2587,34 +2528,34 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E52" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H52" t="s">
-        <v>51</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J52" s="1">
+        <v>48</v>
+      </c>
+      <c r="I52" s="1">
+        <v>44155</v>
+      </c>
+      <c r="J52" s="2">
         <v>0.88194444444444453</v>
       </c>
       <c r="K52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -2622,16 +2563,16 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C53" t="s">
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E53" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
@@ -2640,16 +2581,16 @@
         <v>17</v>
       </c>
       <c r="H53" t="s">
-        <v>27</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J53" s="1">
+        <v>26</v>
+      </c>
+      <c r="I53" s="1">
+        <v>44156</v>
+      </c>
+      <c r="J53" s="2">
         <v>0.47430555555555554</v>
       </c>
       <c r="K53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -2657,34 +2598,34 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E54" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
       </c>
       <c r="G54" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H54" t="s">
-        <v>27</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J54" s="1">
+        <v>26</v>
+      </c>
+      <c r="I54" s="1">
+        <v>44156</v>
+      </c>
+      <c r="J54" s="2">
         <v>0.59166666666666667</v>
       </c>
       <c r="K54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -2692,16 +2633,16 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E55" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
@@ -2710,16 +2651,16 @@
         <v>17</v>
       </c>
       <c r="H55" t="s">
-        <v>113</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J55" s="1">
+        <v>97</v>
+      </c>
+      <c r="I55" s="1">
+        <v>44162</v>
+      </c>
+      <c r="J55" s="2">
         <v>0.40625</v>
       </c>
       <c r="K55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -2727,34 +2668,34 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E56" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
       </c>
       <c r="G56" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H56" t="s">
-        <v>27</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J56" s="1">
+        <v>26</v>
+      </c>
+      <c r="I56" s="1">
+        <v>44162</v>
+      </c>
+      <c r="J56" s="2">
         <v>0.76388888888888884</v>
       </c>
       <c r="K56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -2762,16 +2703,16 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="E57" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
@@ -2780,16 +2721,16 @@
         <v>17</v>
       </c>
       <c r="H57" t="s">
-        <v>27</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J57" s="1">
+        <v>26</v>
+      </c>
+      <c r="I57" s="1">
+        <v>44256</v>
+      </c>
+      <c r="J57" s="2">
         <v>0.47430555555555554</v>
       </c>
       <c r="K57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -2797,34 +2738,34 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="E58" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
       </c>
       <c r="G58" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H58" t="s">
-        <v>51</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J58" s="1">
+        <v>48</v>
+      </c>
+      <c r="I58" s="1">
+        <v>44256</v>
+      </c>
+      <c r="J58" s="2">
         <v>0.75694444444444453</v>
       </c>
       <c r="K58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -2832,16 +2773,16 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E59" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
@@ -2852,14 +2793,14 @@
       <c r="H59" t="s">
         <v>18</v>
       </c>
-      <c r="I59" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J59" s="1">
+      <c r="I59" s="1">
+        <v>44256</v>
+      </c>
+      <c r="J59" s="2">
         <v>0.59930555555555554</v>
       </c>
       <c r="K59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -2867,34 +2808,34 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C60" t="s">
         <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E60" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H60" t="s">
-        <v>27</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J60" s="1">
+        <v>26</v>
+      </c>
+      <c r="I60" s="1">
+        <v>44256</v>
+      </c>
+      <c r="J60" s="2">
         <v>0.79999999999999993</v>
       </c>
       <c r="K60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -2902,34 +2843,34 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C61" t="s">
         <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="E61" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
         <v>17</v>
       </c>
       <c r="H61" t="s">
-        <v>124</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J61" s="1">
+        <v>106</v>
+      </c>
+      <c r="I61" s="1">
+        <v>44211</v>
+      </c>
+      <c r="J61" s="2">
         <v>0.35694444444444445</v>
       </c>
       <c r="K61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -2937,34 +2878,34 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H62" t="s">
-        <v>27</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J62" s="1">
+        <v>26</v>
+      </c>
+      <c r="I62" s="1">
+        <v>44211</v>
+      </c>
+      <c r="J62" s="2">
         <v>0.52708333333333335</v>
       </c>
       <c r="K62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -2972,34 +2913,34 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C63" t="s">
         <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E63" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
         <v>17</v>
       </c>
       <c r="H63" t="s">
-        <v>27</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J63" s="1">
+        <v>26</v>
+      </c>
+      <c r="I63" s="1">
+        <v>44217</v>
+      </c>
+      <c r="J63" s="2">
         <v>0.41250000000000003</v>
       </c>
       <c r="K63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -3007,34 +2948,34 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E64" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H64" t="s">
-        <v>51</v>
-      </c>
-      <c r="I64" s="2">
+        <v>48</v>
+      </c>
+      <c r="I64" s="1">
         <v>44218</v>
       </c>
-      <c r="J64" s="1">
+      <c r="J64" s="2">
         <v>0.73055555555555562</v>
       </c>
       <c r="K64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -3042,16 +2983,16 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C65" t="s">
         <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E65" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F65" t="s">
         <v>16</v>
@@ -3060,16 +3001,16 @@
         <v>17</v>
       </c>
       <c r="H65" t="s">
-        <v>27</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J65" s="1">
+        <v>26</v>
+      </c>
+      <c r="I65" s="1">
+        <v>44257</v>
+      </c>
+      <c r="J65" s="2">
         <v>0.60555555555555551</v>
       </c>
       <c r="K65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -3077,34 +3018,34 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E66" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H66" t="s">
+        <v>26</v>
+      </c>
+      <c r="I66" s="1">
+        <v>44258</v>
+      </c>
+      <c r="J66" s="2">
+        <v>0.64861111111111114</v>
+      </c>
+      <c r="K66" t="s">
         <v>27</v>
-      </c>
-      <c r="I66" s="2">
-        <v>44258</v>
-      </c>
-      <c r="J66" s="1">
-        <v>0.64861111111111114</v>
-      </c>
-      <c r="K66" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -3112,16 +3053,16 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C67" t="s">
         <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="E67" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
@@ -3130,16 +3071,16 @@
         <v>17</v>
       </c>
       <c r="H67" t="s">
-        <v>51</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J67" s="1">
+        <v>48</v>
+      </c>
+      <c r="I67" s="1">
+        <v>44278</v>
+      </c>
+      <c r="J67" s="2">
         <v>0.34166666666666662</v>
       </c>
       <c r="K67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -3147,34 +3088,34 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C68" t="s">
         <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="E68" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H68" t="s">
-        <v>51</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J68" s="1">
+        <v>48</v>
+      </c>
+      <c r="I68" s="1">
+        <v>44278</v>
+      </c>
+      <c r="J68" s="2">
         <v>0.52361111111111114</v>
       </c>
       <c r="K68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -3202,14 +3143,14 @@
       <c r="H69" t="s">
         <v>18</v>
       </c>
-      <c r="I69" s="2">
+      <c r="I69" s="1">
         <v>44217</v>
       </c>
-      <c r="J69" s="1">
+      <c r="J69" s="2">
         <v>0.40625</v>
       </c>
       <c r="K69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -3232,19 +3173,19 @@
         <v>16</v>
       </c>
       <c r="G70" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" t="s">
         <v>21</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" s="1">
+        <v>44223</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="K70" t="s">
         <v>22</v>
-      </c>
-      <c r="I70" s="2">
-        <v>44223</v>
-      </c>
-      <c r="J70" s="1">
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="K70" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -3252,13 +3193,13 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s">
         <v>24</v>
-      </c>
-      <c r="C71" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" t="s">
-        <v>25</v>
       </c>
       <c r="E71">
         <v>2345</v>
@@ -3272,14 +3213,14 @@
       <c r="H71" t="s">
         <v>18</v>
       </c>
-      <c r="I71" s="2">
+      <c r="I71" s="1">
         <v>44549</v>
       </c>
-      <c r="J71" s="1">
+      <c r="J71" s="2">
         <v>0.42499999999999999</v>
       </c>
       <c r="K71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -3287,13 +3228,13 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s">
         <v>24</v>
-      </c>
-      <c r="C72" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" t="s">
-        <v>25</v>
       </c>
       <c r="E72">
         <v>2345</v>
@@ -3302,19 +3243,19 @@
         <v>16</v>
       </c>
       <c r="G72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I72" s="1">
+        <v>44550</v>
+      </c>
+      <c r="J72" s="2">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="K72" t="s">
         <v>27</v>
-      </c>
-      <c r="I72" s="2">
-        <v>44550</v>
-      </c>
-      <c r="J72" s="1">
-        <v>0.56180555555555556</v>
-      </c>
-      <c r="K72" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -3322,13 +3263,13 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s">
         <v>24</v>
-      </c>
-      <c r="C73" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" t="s">
-        <v>25</v>
       </c>
       <c r="E73">
         <v>2345</v>
@@ -3337,19 +3278,19 @@
         <v>16</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H73" t="s">
         <v>18</v>
       </c>
-      <c r="I73" s="2">
+      <c r="I73" s="1">
         <v>44550</v>
       </c>
-      <c r="J73" s="1">
-        <v>1</v>
+      <c r="J73" s="2">
+        <v>0</v>
       </c>
       <c r="K73" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -3357,7 +3298,7 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
@@ -3375,16 +3316,16 @@
         <v>17</v>
       </c>
       <c r="H74" t="s">
-        <v>27</v>
-      </c>
-      <c r="I74" s="2">
+        <v>26</v>
+      </c>
+      <c r="I74" s="1">
         <v>44297</v>
       </c>
-      <c r="J74" s="1">
+      <c r="J74" s="2">
         <v>0.52361111111111114</v>
       </c>
       <c r="K74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -3392,7 +3333,7 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C75" t="s">
         <v>13</v>
@@ -3404,22 +3345,22 @@
         <v>7890</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H75" t="s">
-        <v>22</v>
-      </c>
-      <c r="I75" s="2">
+        <v>21</v>
+      </c>
+      <c r="I75" s="1">
         <v>44297</v>
       </c>
-      <c r="J75" s="1">
+      <c r="J75" s="2">
         <v>0.71666666666666667</v>
       </c>
       <c r="K75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -3427,7 +3368,7 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
@@ -3439,22 +3380,22 @@
         <v>7890</v>
       </c>
       <c r="F76" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" t="s">
         <v>33</v>
       </c>
-      <c r="G76" t="s">
-        <v>35</v>
-      </c>
       <c r="H76" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76" s="1">
+        <v>44299</v>
+      </c>
+      <c r="J76" s="2">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="K76" t="s">
         <v>22</v>
-      </c>
-      <c r="I76" s="2">
-        <v>44299</v>
-      </c>
-      <c r="J76" s="1">
-        <v>0.75694444444444453</v>
-      </c>
-      <c r="K76" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -3462,7 +3403,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
@@ -3482,14 +3423,14 @@
       <c r="H77" t="s">
         <v>18</v>
       </c>
-      <c r="I77" s="2">
+      <c r="I77" s="1">
         <v>44240</v>
       </c>
-      <c r="J77" s="1">
+      <c r="J77" s="2">
         <v>0.38611111111111113</v>
       </c>
       <c r="K77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -3497,7 +3438,7 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
@@ -3512,19 +3453,19 @@
         <v>16</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H78" t="s">
-        <v>27</v>
-      </c>
-      <c r="I78" s="2">
+        <v>26</v>
+      </c>
+      <c r="I78" s="1">
         <v>44241</v>
       </c>
-      <c r="J78" s="1">
+      <c r="J78" s="2">
         <v>0.52222222222222225</v>
       </c>
       <c r="K78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -3532,13 +3473,13 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E79">
         <v>12000</v>
@@ -3552,14 +3493,14 @@
       <c r="H79" t="s">
         <v>18</v>
       </c>
-      <c r="I79" s="2">
+      <c r="I79" s="1">
         <v>44388</v>
       </c>
-      <c r="J79" s="1">
+      <c r="J79" s="2">
         <v>0.42430555555555555</v>
       </c>
       <c r="K79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -3567,34 +3508,34 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E80">
         <v>12000</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H80" t="s">
-        <v>41</v>
-      </c>
-      <c r="I80" s="2">
+        <v>39</v>
+      </c>
+      <c r="I80" s="1">
         <v>44388</v>
       </c>
-      <c r="J80" s="1">
+      <c r="J80" s="2">
         <v>0.7319444444444444</v>
       </c>
       <c r="K80" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -3602,13 +3543,13 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C81" t="s">
         <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E81">
         <v>30000</v>
@@ -3622,14 +3563,14 @@
       <c r="H81" t="s">
         <v>18</v>
       </c>
-      <c r="I81" s="2">
+      <c r="I81" s="1">
         <v>44305</v>
       </c>
-      <c r="J81" s="1">
+      <c r="J81" s="2">
         <v>0.55138888888888882</v>
       </c>
       <c r="K81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -3637,13 +3578,13 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E82">
         <v>3000</v>
@@ -3652,19 +3593,19 @@
         <v>16</v>
       </c>
       <c r="G82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H82" t="s">
-        <v>27</v>
-      </c>
-      <c r="I82" s="2">
+        <v>26</v>
+      </c>
+      <c r="I82" s="1">
         <v>44306</v>
       </c>
-      <c r="J82" s="1">
+      <c r="J82" s="2">
         <v>0.52361111111111114</v>
       </c>
       <c r="K82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -3672,13 +3613,13 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E83">
         <v>12400</v>
@@ -3692,14 +3633,14 @@
       <c r="H83" t="s">
         <v>18</v>
       </c>
-      <c r="I83" s="2">
+      <c r="I83" s="1">
         <v>44454</v>
       </c>
-      <c r="J83" s="1">
+      <c r="J83" s="2">
         <v>0.43263888888888885</v>
       </c>
       <c r="K83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -3707,13 +3648,13 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E84">
         <v>12400</v>
@@ -3722,19 +3663,19 @@
         <v>16</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H84" t="s">
-        <v>27</v>
-      </c>
-      <c r="I84" s="2">
+        <v>26</v>
+      </c>
+      <c r="I84" s="1">
         <v>44455</v>
       </c>
-      <c r="J84" s="1">
+      <c r="J84" s="2">
         <v>0.48819444444444443</v>
       </c>
       <c r="K84" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -3742,13 +3683,13 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E85">
         <v>12400</v>
@@ -3757,19 +3698,19 @@
         <v>16</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H85" t="s">
-        <v>51</v>
-      </c>
-      <c r="I85" s="2">
+        <v>48</v>
+      </c>
+      <c r="I85" s="1">
         <v>44455</v>
       </c>
-      <c r="J85" s="1">
+      <c r="J85" s="2">
         <v>0.70972222222222225</v>
       </c>
       <c r="K85" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -3777,13 +3718,13 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E86">
         <v>17430</v>
@@ -3795,16 +3736,16 @@
         <v>17</v>
       </c>
       <c r="H86" t="s">
-        <v>27</v>
-      </c>
-      <c r="I86" s="2">
+        <v>26</v>
+      </c>
+      <c r="I86" s="1">
         <v>44388</v>
       </c>
-      <c r="J86" s="1">
+      <c r="J86" s="2">
         <v>0.52986111111111112</v>
       </c>
       <c r="K86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -3812,13 +3753,13 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E87">
         <v>17430</v>
@@ -3832,14 +3773,14 @@
       <c r="H87" t="s">
         <v>18</v>
       </c>
-      <c r="I87" s="2">
+      <c r="I87" s="1">
         <v>44389</v>
       </c>
-      <c r="J87" s="1">
+      <c r="J87" s="2">
         <v>0.65347222222222223</v>
       </c>
       <c r="K87" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -3847,13 +3788,13 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E88">
         <v>17430</v>
@@ -3865,16 +3806,16 @@
         <v>17</v>
       </c>
       <c r="H88" t="s">
-        <v>27</v>
-      </c>
-      <c r="I88" s="2">
+        <v>26</v>
+      </c>
+      <c r="I88" s="1">
         <v>44390</v>
       </c>
-      <c r="J88" s="1">
+      <c r="J88" s="2">
         <v>0.75694444444444453</v>
       </c>
       <c r="K88" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -3882,13 +3823,13 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E89">
         <v>12000</v>
@@ -3900,16 +3841,16 @@
         <v>17</v>
       </c>
       <c r="H89" t="s">
-        <v>27</v>
-      </c>
-      <c r="I89" s="2">
+        <v>26</v>
+      </c>
+      <c r="I89" s="1">
         <v>44474</v>
       </c>
-      <c r="J89" s="1">
+      <c r="J89" s="2">
         <v>0.52986111111111112</v>
       </c>
       <c r="K89" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -3917,13 +3858,13 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E90">
         <v>12000</v>
@@ -3937,14 +3878,14 @@
       <c r="H90" t="s">
         <v>18</v>
       </c>
-      <c r="I90" s="2">
+      <c r="I90" s="1">
         <v>44474</v>
       </c>
-      <c r="J90" s="1">
+      <c r="J90" s="2">
         <v>0.60555555555555551</v>
       </c>
       <c r="K90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -3952,34 +3893,34 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E91">
         <v>12000</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H91" t="s">
+        <v>26</v>
+      </c>
+      <c r="I91" s="1">
+        <v>44476</v>
+      </c>
+      <c r="J91" s="2">
+        <v>0.76458333333333339</v>
+      </c>
+      <c r="K91" t="s">
         <v>27</v>
-      </c>
-      <c r="I91" s="2">
-        <v>44476</v>
-      </c>
-      <c r="J91" s="1">
-        <v>0.76458333333333339</v>
-      </c>
-      <c r="K91" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
